--- a/Project Outputs for GD_Tcontroller/GD_Tcontroller.xlsx
+++ b/Project Outputs for GD_Tcontroller/GD_Tcontroller.xlsx
@@ -70,7 +70,7 @@
     <t>RES 470 Ohm 5% 0805</t>
   </si>
   <si>
-    <t>R37, R38, R39, R41, R43, R44, R45</t>
+    <t>R37, R38, R39</t>
   </si>
   <si>
     <t>RES 10K 5% 0805(2012)</t>
@@ -85,6 +85,12 @@
     <t>R10, R11</t>
   </si>
   <si>
+    <t>RES 1K 5% 0805</t>
+  </si>
+  <si>
+    <t>R41, R43, R44, R45</t>
+  </si>
+  <si>
     <t>LED White 3mm</t>
   </si>
   <si>
@@ -109,18 +115,12 @@
     <t>CN2</t>
   </si>
   <si>
-    <t>DC3-12P,2.54mm</t>
+    <t>DC3-20P,2.00mm</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>DC3-10P,2.54mm</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>CR1220 Sockect SMD</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>C6</t>
   </si>
   <si>
-    <t>BUTTON,6X6X5mm</t>
-  </si>
-  <si>
-    <t>B1, K1</t>
+    <t>BUTTON,6X6X7mm</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>AT24C02BN-SP25-T</t>
@@ -657,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -701,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -800,7 +800,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
